--- a/DESIGN/rules/pa/Bank Rating.xlsx
+++ b/DESIGN/rules/pa/Bank Rating.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4920" windowWidth="14895" windowHeight="3180" tabRatio="878"/>
+    <workbookView tabRatio="878" windowHeight="3180" windowWidth="14895" xWindow="-15" yWindow="4920"/>
   </bookViews>
   <sheets>
-    <sheet name="Rating Algorithm" sheetId="18" r:id="rId1"/>
-    <sheet name="Algorithm Tests" sheetId="36" r:id="rId2"/>
-    <sheet name="Balance Quality" sheetId="17" r:id="rId3"/>
-    <sheet name="Balance Quality Tests" sheetId="39" r:id="rId4"/>
-    <sheet name="Balance Quality in Dynamic" sheetId="31" r:id="rId5"/>
-    <sheet name="Balance in Dynamic Tests" sheetId="37" r:id="rId6"/>
-    <sheet name="Bank Qualitative factors" sheetId="32" r:id="rId7"/>
-    <sheet name="Qualitat Factors Tests" sheetId="40" r:id="rId8"/>
-    <sheet name="Central Bank Req" sheetId="33" r:id="rId9"/>
-    <sheet name="Central Bank Req Tests" sheetId="38" r:id="rId10"/>
-    <sheet name="Rating Groups" sheetId="34" r:id="rId11"/>
-    <sheet name="Rating Groups Test" sheetId="41" r:id="rId12"/>
-    <sheet name="Limit" sheetId="35" r:id="rId13"/>
-    <sheet name="Limit Test" sheetId="42" r:id="rId14"/>
-    <sheet name="Max Limit" sheetId="21" r:id="rId15"/>
-    <sheet name="Set NonZero Values" sheetId="28" r:id="rId16"/>
-    <sheet name="SetNonZero Test" sheetId="43" r:id="rId17"/>
-    <sheet name="Domain" sheetId="23" r:id="rId18"/>
-    <sheet name="Vocabulary" sheetId="2" r:id="rId19"/>
-    <sheet name="Test Data" sheetId="19" r:id="rId20"/>
+    <sheet name="Rating Algorithm" r:id="rId1" sheetId="18"/>
+    <sheet name="Algorithm Tests" r:id="rId2" sheetId="36"/>
+    <sheet name="Balance Quality" r:id="rId3" sheetId="17"/>
+    <sheet name="Balance Quality Tests" r:id="rId4" sheetId="39"/>
+    <sheet name="Balance Quality in Dynamic" r:id="rId5" sheetId="31"/>
+    <sheet name="Balance in Dynamic Tests" r:id="rId6" sheetId="37"/>
+    <sheet name="Bank Qualitative factors" r:id="rId7" sheetId="32"/>
+    <sheet name="Qualitat Factors Tests" r:id="rId8" sheetId="40"/>
+    <sheet name="Central Bank Req" r:id="rId9" sheetId="33"/>
+    <sheet name="Central Bank Req Tests" r:id="rId10" sheetId="38"/>
+    <sheet name="Rating Groups" r:id="rId11" sheetId="34"/>
+    <sheet name="Rating Groups Test" r:id="rId12" sheetId="41"/>
+    <sheet name="Limit" r:id="rId13" sheetId="35"/>
+    <sheet name="Limit Test" r:id="rId14" sheetId="42"/>
+    <sheet name="Max Limit" r:id="rId15" sheetId="21"/>
+    <sheet name="Set NonZero Values" r:id="rId16" sheetId="28"/>
+    <sheet name="SetNonZero Test" r:id="rId17" sheetId="43"/>
+    <sheet name="Domain" r:id="rId18" sheetId="23"/>
+    <sheet name="Vocabulary" r:id="rId19" sheetId="2"/>
+    <sheet name="Test Data" r:id="rId20" sheetId="19"/>
   </sheets>
   <definedNames>
     <definedName name="Deductible">Vocabulary!#REF!</definedName>
@@ -4188,7 +4188,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0" rgb="FFFFFF"/>
+      <color rgb="FFFFFF" theme="0"/>
       <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
@@ -4294,13 +4294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" rgb="FFFFFF"/>
+        <fgColor rgb="FFFFFF" theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893" rgb="4F81BD"/>
+        <fgColor rgb="4F81BD" theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4324,7 +4324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442" rgb="4F81BD"/>
+        <fgColor rgb="4F81BD" theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4336,7 +4336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2" rgb="EEECE1"/>
+        <fgColor rgb="EEECE1" theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6388,744 +6388,744 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="32" fillId="0" fontId="12" numFmtId="0" xfId="3"/>
   </cellStyleXfs>
   <cellXfs count="277">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="2"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" quotePrefix="1" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="21" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="45" fillId="5" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="46" fillId="5" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="47" fillId="6" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="48" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="49" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="50" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="51" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="52" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="53" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="54" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="55" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="45" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="47" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="56" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="57" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="58" fillId="7" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="3"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="32" fillId="0" fontId="12" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="61" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="62" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="46" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="64" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="12" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="9" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="9" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="10" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="5" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="63" fillId="5" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="66" fillId="13" fontId="1" numFmtId="164" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="67" fillId="13" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="27" fillId="13" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="30" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="71" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="72" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="73" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="74" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="60" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="76" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="79" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="80" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="86" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="87" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="89" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="89" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="88" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="88" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="95" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="51" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="51" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="4" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="85" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="99" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="100" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="78" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="70" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="81" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="98" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="79" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="101" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="102" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="103" fillId="4" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="104" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="109" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="65" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="65" fillId="14" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="116" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="116" fillId="14" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="44" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="118" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="123" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="123" fillId="14" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="120" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="120" fillId="6" fontId="14" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="124" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="124" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="37" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="125" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="125" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="126" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="126" fillId="7" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="127" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="43" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="130" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="130" fillId="14" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="131" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="132" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="133" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="134" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="135" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="136" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="137" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="138" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="110" fillId="7" fontId="7" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="111" fillId="8" fontId="7" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="112" fillId="8" fontId="7" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="113" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="114" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="111" fillId="7" fontId="7" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="34" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="69" fillId="7" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="68" fillId="8" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="113" fillId="7" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="114" fillId="8" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="43" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="141" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="64" fillId="14" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="146" fillId="12" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="147" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="124" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="147" fillId="12" fontId="11" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="148" fillId="12" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="149" fillId="12" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="124" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="126" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="126" fillId="7" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="151" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="152" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="110" fillId="7" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="69" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="113" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="69" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="27" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="68" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="114" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="112" fillId="8" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="153" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="114" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="114" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="153" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="27" fillId="7" fontId="1" numFmtId="3" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="27" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="34" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="154" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="155" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="67" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="27" fillId="7" fontId="0" numFmtId="3" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="67" fillId="7" fontId="1" numFmtId="3" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="155" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="154" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="9" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="142" fillId="12" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="143" fillId="12" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="144" fillId="12" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="129" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="117" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="119" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="119" fillId="7" fontId="14" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="128" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="128" fillId="7" fontId="14" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="139" fillId="12" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="140" fillId="12" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="121" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="127" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="115" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="29" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="145" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="82" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="83" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="84" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="36" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="37" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="43" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="122" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="59" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="36" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="37" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="36" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="37" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="37" fillId="9" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="142" fillId="12" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="144" fillId="12" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="77" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="150" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="143" fillId="12" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="28" fillId="11" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="11" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="37" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="38" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="82" fillId="11" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="83" fillId="11" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="84" fillId="11" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="39" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="40" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="11" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="144" fillId="12" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="89" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="89" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="90" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="90" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="91" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="91" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="42" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="88" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="88" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="107" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="108" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="105" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="106" fillId="12" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="93" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="41" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="93" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="94" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="21" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="51" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="51" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="53" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="53" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="54" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="54" fillId="8" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="92" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="75" fillId="5" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="96" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="97" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="3" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="3" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="3" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="2" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="2" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="2" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="3" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="82" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="83" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="84" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal_EPLI rater" xfId="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFE1FFFF"/>
@@ -7147,7 +7147,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -7187,14 +7187,14 @@
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
+            <a:gd fmla="val 16667" name="adj"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:outerShdw algn="tl" blurRad="50800" dir="2700000" dist="38100" rotWithShape="0">
             <a:prstClr val="black">
               <a:alpha val="40000"/>
             </a:prstClr>
@@ -7202,12 +7202,12 @@
         </a:effectLst>
         <a:scene3d>
           <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="contrasting" dir="t">
+          <a:lightRig dir="t" rig="contrasting">
             <a:rot lat="0" lon="0" rev="4200000"/>
           </a:lightRig>
         </a:scene3d>
         <a:sp3d prstMaterial="plastic">
-          <a:bevelT w="381000" h="114300" prst="relaxedInset"/>
+          <a:bevelT h="114300" prst="relaxedInset" w="381000"/>
           <a:contourClr>
             <a:srgbClr val="969696"/>
           </a:contourClr>
@@ -7224,10 +7224,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7385,7 +7385,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7394,13 +7394,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7410,7 +7410,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7419,7 +7419,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7428,7 +7428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7438,12 +7438,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7474,7 +7474,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7493,7 +7493,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7505,11 +7505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:J96"/>
+  <dimension ref="B1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7539,7 +7539,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="3" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="51" t="s">
         <v>483</v>
       </c>
@@ -7547,8 +7547,8 @@
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="2:10" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row customHeight="1" ht="161.25" r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D6" s="186" t="s">
         <v>527</v>
       </c>
@@ -7556,13 +7556,13 @@
       <c r="F6" s="187"/>
       <c r="G6" s="188"/>
     </row>
-    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="16.5" r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D7" s="150"/>
       <c r="E7" s="150"/>
       <c r="F7" s="150"/>
       <c r="G7" s="150"/>
     </row>
-    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row ht="21" r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D9" s="202" t="s">
         <v>472</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="F9" s="203"/>
       <c r="G9" s="204"/>
     </row>
-    <row r="10" spans="2:10" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="201" r="10" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="117" t="s">
         <v>5</v>
       </c>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="G10" s="196"/>
     </row>
-    <row r="11" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="11" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="197" t="s">
         <v>6</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="16.5" r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D17" s="191" t="s">
         <v>181</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="45" x14ac:dyDescent="0.3">
+    <row ht="45" r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D18" s="199" t="s">
         <v>179</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="20" spans="2:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="52"/>
       <c r="D20" s="208" t="s">
         <v>203</v>
@@ -7706,7 +7706,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row customHeight="1" ht="36.75" r="21" spans="2:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="16"/>
       <c r="D21" s="193" t="s">
         <v>202</v>
@@ -7722,7 +7722,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row ht="21" r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="10"/>
       <c r="D26" s="202" t="s">
         <v>636</v>
@@ -7734,7 +7734,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="126.75" r="27" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
       <c r="D27" s="117" t="s">
         <v>5</v>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="28" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="197" t="s">
         <v>6</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D31" s="191" t="s">
         <v>358</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D33" s="191" t="s">
         <v>57</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" s="191" t="s">
         <v>59</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="36" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D36" s="189" t="s">
         <v>184</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="45" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="45" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D45" s="191" t="s">
         <v>63</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="46" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D46" s="189" t="s">
         <v>189</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="48" spans="4:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D48" s="191" t="s">
         <v>190</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="127.5" r="49" spans="2:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="D49" s="193" t="s">
         <v>74</v>
       </c>
@@ -8020,7 +8020,7 @@
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row ht="21" r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" s="10"/>
       <c r="D54" s="202" t="s">
         <v>603</v>
@@ -8032,7 +8032,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="69.75" r="55" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="10"/>
       <c r="D55" s="117" t="s">
         <v>5</v>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="56" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D56" s="197" t="s">
         <v>6</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D58" s="189" t="s">
         <v>116</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="45.75" r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D59" s="191" t="s">
         <v>132</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D60" s="189" t="s">
         <v>133</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D61" s="191" t="s">
         <v>130</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D62" s="189" t="s">
         <v>131</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="28.5" r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D63" s="191" t="s">
         <v>138</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D64" s="189" t="s">
         <v>137</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D65" s="191" t="s">
         <v>141</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D66" s="189" t="s">
         <v>142</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="45.75" r="67" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D67" s="191" t="s">
         <v>144</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="19.5" r="68" spans="2:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="D68" s="193" t="s">
         <v>113</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row ht="21" r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="16"/>
       <c r="D73" s="202" t="s">
         <v>473</v>
@@ -8214,7 +8214,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="84.75" r="74" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="16"/>
       <c r="D74" s="117" t="s">
         <v>5</v>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="75" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D75" s="197" t="s">
         <v>6</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="79" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D79" s="191" t="s">
         <v>154</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row customHeight="1" ht="39.75" r="82" spans="2:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D82" s="191" t="s">
         <v>176</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="19.5" r="83" spans="2:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="D83" s="193" t="s">
         <v>113</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row ht="21" r="88" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B88" s="16"/>
       <c r="D88" s="202" t="s">
         <v>474</v>
@@ -8338,7 +8338,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="88.5" r="89" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="16"/>
       <c r="D89" s="117" t="s">
         <v>5</v>
@@ -8354,7 +8354,7 @@
       </c>
       <c r="J89" s="16"/>
     </row>
-    <row r="90" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="90" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D90" s="197" t="s">
         <v>6</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row ht="30" r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D93" s="191" t="s">
         <v>173</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="95" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row customHeight="1" ht="39.75" r="95" spans="2:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D95" s="191" t="s">
         <v>177</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="19.5" r="96" spans="2:10" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="D96" s="193" t="s">
         <v>113</v>
       </c>
@@ -8511,25 +8511,25 @@
     <mergeCell ref="D75:E75"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J26" location="'Balance Quality'!A1" display="'Balance Quality'!A1"/>
-    <hyperlink ref="J54" location="'Balance Quality in Dynamic'!A1" display="'Balance Quality in Dynamic'!A1"/>
-    <hyperlink ref="J73" location="'Bank Qualitative factors'!A1" display="'Bank Qualitative factors'!A1"/>
-    <hyperlink ref="J88" location="'Central Bank Req'!A1" display="'Central Bank Req'!A1"/>
-    <hyperlink ref="J12" location="'Set NonZero Values'!A1" display="Set Default Values'!A1"/>
-    <hyperlink ref="J19" location="'Rating Groups'!A1" display="'Rating Groups'!A1"/>
-    <hyperlink ref="J20" location="Limit!A1" display="Limit!A1"/>
-    <hyperlink ref="J21" location="'Max Limit'!A1" display="'Max Limit'!A1"/>
-    <hyperlink ref="J1" r:id="rId1"/>
+    <hyperlink display="'Balance Quality'!A1" location="'Balance Quality'!A1" ref="J26"/>
+    <hyperlink display="'Balance Quality in Dynamic'!A1" location="'Balance Quality in Dynamic'!A1" ref="J54"/>
+    <hyperlink display="'Bank Qualitative factors'!A1" location="'Bank Qualitative factors'!A1" ref="J73"/>
+    <hyperlink display="'Central Bank Req'!A1" location="'Central Bank Req'!A1" ref="J88"/>
+    <hyperlink display="Set Default Values'!A1" location="'Set NonZero Values'!A1" ref="J12"/>
+    <hyperlink display="'Rating Groups'!A1" location="'Rating Groups'!A1" ref="J19"/>
+    <hyperlink display="Limit!A1" location="Limit!A1" ref="J20"/>
+    <hyperlink display="'Max Limit'!A1" location="'Max Limit'!A1" ref="J21"/>
+    <hyperlink r:id="rId1" ref="J1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8540,25 +8540,25 @@
     <col min="5" max="5" customWidth="true" width="31.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="15" spans="2:5" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="2" s="15" spans="2:5" x14ac:dyDescent="0.3"/>
+    <row ht="20.25" r="3" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>491</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:5" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="4" s="15" spans="2:5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="5" s="15" spans="2:5" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="6" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="219" t="s">
         <v>676</v>
       </c>
       <c r="D6" s="220"/>
       <c r="E6" s="217"/>
     </row>
-    <row r="7" spans="2:5" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="7" s="15" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="128" t="s">
         <v>37</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="22.5" r="8" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" s="136" t="s">
         <v>170</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="177" t="s">
         <v>546</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" s="144" t="s">
         <v>540</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="11" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" s="144" t="s">
         <v>540</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="12" s="15" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="146" t="s">
         <v>551</v>
       </c>
@@ -8631,7 +8631,7 @@
       <c r="D16" s="220"/>
       <c r="E16" s="217"/>
     </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="17" spans="3:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="128" t="s">
         <v>37</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="177" t="s">
         <v>540</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="20" s="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="177" t="s">
         <v>540</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="22" spans="3:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="146" t="s">
         <v>551</v>
       </c>
@@ -8705,16 +8705,16 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C16:E16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8731,11 +8731,11 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="20.25" r="3" s="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="44" t="s">
         <v>477</v>
@@ -8743,11 +8743,11 @@
       <c r="C3" s="44"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="4" s="15" spans="1:6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" s="15" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="219" r="5" s="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="C5" s="186" t="s">
         <v>557</v>
@@ -8756,18 +8756,18 @@
       <c r="E5" s="188"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="C6" s="148"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="223" t="s">
         <v>695</v>
       </c>
       <c r="D8" s="223"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="39" t="s">
         <v>197</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="43" t="s">
         <v>198</v>
       </c>
@@ -8823,7 +8823,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="20" s="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
@@ -8837,15 +8837,15 @@
     <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Rating Algorithm'!A19" display="Rating Algorithm'!A19"/>
+    <hyperlink display="Rating Algorithm'!A19" location="'Rating Algorithm'!A19" ref="F1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8855,13 +8855,13 @@
     <col min="4" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="3" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="44" t="s">
         <v>666</v>
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="2:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="D6" s="225"/>
     </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="7" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="161" t="s">
         <v>575</v>
@@ -8896,7 +8896,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C9" s="183">
         <v>0</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" s="183" t="s">
         <v>576</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="11" s="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" s="183" t="s">
         <v>367</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="13" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="C13" s="165">
         <v>1</v>
@@ -8942,16 +8942,16 @@
   <mergeCells count="1">
     <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8977,11 +8977,11 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="20.25" r="3" s="15" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="C3" s="44" t="s">
         <v>496</v>
@@ -8989,11 +8989,11 @@
       <c r="D3" s="44"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="4" s="15" spans="1:15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="42.75" r="5" s="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="D5" s="186" t="s">
         <v>558</v>
@@ -9001,11 +9001,11 @@
       <c r="E5" s="242"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C8" s="202" t="s">
         <v>697</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="L10" s="100"/>
       <c r="M10" s="45"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="11" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="90"/>
       <c r="D11" s="38" t="s">
         <v>212</v>
@@ -9089,7 +9089,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="46"/>
     </row>
-    <row r="12" spans="1:15" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="18.75" r="12" s="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="261" t="s">
         <v>443</v>
       </c>
@@ -9114,7 +9114,7 @@
       <c r="L12" s="256"/>
       <c r="M12" s="94"/>
     </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="21" r="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="262"/>
       <c r="D13" s="253"/>
       <c r="E13" s="253"/>
@@ -9198,7 +9198,7 @@
       <c r="L16" s="257"/>
       <c r="M16" s="258"/>
     </row>
-    <row r="17" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="17" s="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="33">
         <v>4</v>
       </c>
@@ -9221,7 +9221,7 @@
       <c r="L17" s="257"/>
       <c r="M17" s="258"/>
     </row>
-    <row r="18" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="18" s="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="33">
         <v>5</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="L18" s="257"/>
       <c r="M18" s="258"/>
     </row>
-    <row r="19" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="33">
         <v>6</v>
       </c>
@@ -9259,7 +9259,7 @@
       <c r="L19" s="257"/>
       <c r="M19" s="258"/>
     </row>
-    <row r="20" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="20" s="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="33">
         <v>7</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="21" s="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="33">
         <v>8</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="22" s="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="33">
         <v>9</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="24" spans="3:13" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="35">
         <v>11</v>
       </c>
@@ -9428,10 +9428,10 @@
       <c r="E33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="4:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="34" s="15" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="4:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="35" s="15" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.3">
@@ -9465,16 +9465,16 @@
     <mergeCell ref="F12:F13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O1" location="'Rating Algorithm'!A20" display="Rating Algorithm'!A20"/>
+    <hyperlink display="Rating Algorithm'!A20" location="'Rating Algorithm'!A20" ref="O1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9485,18 +9485,18 @@
     <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="3" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="44" t="s">
         <v>681</v>
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="2:5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="219" t="s">
         <v>679</v>
@@ -9516,7 +9516,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="7" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="131" t="s">
         <v>163</v>
@@ -9536,7 +9536,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="9" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15"/>
       <c r="C9" s="139" t="s">
         <v>52</v>
@@ -9552,16 +9552,16 @@
   <mergeCells count="1">
     <mergeCell ref="C5:E5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9577,17 +9577,17 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="2" spans="2:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="44" t="s">
         <v>478</v>
       </c>
       <c r="C2" s="44"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="2:6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="47.25" r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="186" t="s">
         <v>498</v>
       </c>
@@ -9597,17 +9597,17 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F5" s="16"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="7" spans="2:6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="20" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="8" spans="2:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="74" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="9" spans="2:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="75">
         <v>5000</v>
       </c>
@@ -9619,19 +9619,19 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Rating Algorithm'!A21" display="Rating Algorithm'!A21"/>
+    <hyperlink display="Rating Algorithm'!A21" location="'Rating Algorithm'!A21" ref="F1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9648,15 +9648,15 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="20.25" r="2" s="15" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="44" t="s">
         <v>500</v>
       </c>
       <c r="C2" s="44"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="3" spans="2:8" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row ht="18" r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C4" s="239" t="s">
         <v>591</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="6" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
@@ -9735,9 +9735,7 @@
       <c r="D10" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>699</v>
-      </c>
+      <c r="E10" s="58"/>
       <c r="F10" s="59" t="s">
         <v>350</v>
       </c>
@@ -9778,7 +9776,7 @@
       </c>
       <c r="F13" s="59"/>
     </row>
-    <row r="14" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="14" s="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="56" t="s">
         <v>13</v>
       </c>
@@ -9790,7 +9788,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="15" s="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C15" s="56" t="s">
         <v>338</v>
       </c>
@@ -9802,7 +9800,7 @@
       </c>
       <c r="F15" s="59"/>
     </row>
-    <row r="16" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="16" s="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="56" t="s">
         <v>13</v>
       </c>
@@ -9814,7 +9812,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="17" s="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="56" t="s">
         <v>338</v>
       </c>
@@ -9826,7 +9824,7 @@
       </c>
       <c r="F17" s="59"/>
     </row>
-    <row r="18" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="18" s="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="56" t="s">
         <v>13</v>
       </c>
@@ -9838,7 +9836,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>338</v>
       </c>
@@ -9850,7 +9848,7 @@
       </c>
       <c r="F19" s="59"/>
     </row>
-    <row r="20" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="20" s="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="56" t="s">
         <v>13</v>
       </c>
@@ -9862,7 +9860,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="21" s="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="56" t="s">
         <v>338</v>
       </c>
@@ -9874,7 +9872,7 @@
       </c>
       <c r="F21" s="59"/>
     </row>
-    <row r="22" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="22" s="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="56" t="s">
         <v>13</v>
       </c>
@@ -9886,7 +9884,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="23" s="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="56" t="s">
         <v>338</v>
       </c>
@@ -9920,16 +9918,16 @@
     <mergeCell ref="C4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H1" location="'Rating Algorithm'!A12" display="Rating Algorithm'!A12"/>
+    <hyperlink display="Rating Algorithm'!A12" location="'Rating Algorithm'!A12" ref="H1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9939,13 +9937,13 @@
     <col min="4" max="4" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="3" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="44" t="s">
         <v>682</v>
       </c>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="2:4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -9971,7 +9969,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="8" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="15"/>
       <c r="C8" s="133" t="s">
         <v>588</v>
@@ -9987,7 +9985,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="10" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15"/>
       <c r="C10" s="139">
         <v>2009</v>
@@ -10005,16 +10003,16 @@
   <mergeCells count="1">
     <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:E49"/>
+  <dimension ref="B2:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10026,14 +10024,14 @@
     <col min="5" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="2" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="44" t="s">
         <v>479</v>
       </c>
       <c r="C2" s="44"/>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="3" spans="2:5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row ht="18" r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C5" s="266" t="s">
         <v>463</v>
       </c>
@@ -10105,7 +10103,7 @@
       </c>
       <c r="E12" s="69"/>
     </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C15" s="269" t="s">
         <v>585</v>
       </c>
@@ -10297,7 +10295,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" s="269" t="s">
         <v>464</v>
       </c>
@@ -10401,7 +10399,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C47" s="272" t="s">
         <v>468</v>
       </c>
@@ -10430,20 +10428,20 @@
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C47:D47"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:D85"/>
+  <dimension ref="B3:E85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10453,15 +10451,15 @@
     <col min="6" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="3" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>481</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="4" spans="2:4" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row ht="18" r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D6" s="27" t="s">
         <v>466</v>
       </c>
@@ -10481,7 +10479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D12" s="27" t="s">
         <v>692</v>
       </c>
@@ -10706,7 +10704,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="4:4" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59" s="27" t="s">
         <v>467</v>
       </c>
@@ -10801,7 +10799,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="4:4" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80" s="27" t="s">
         <v>694</v>
       </c>
@@ -10833,15 +10831,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" scale="55"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10852,18 +10850,18 @@
     <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="15" spans="1:5" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" ht="20.25" r="3" s="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>475</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="15" r="6" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="C6" s="215" t="s">
         <v>667</v>
@@ -10871,7 +10869,7 @@
       <c r="D6" s="216"/>
       <c r="E6" s="217"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="7" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="128" t="s">
         <v>161</v>
       </c>
@@ -10882,14 +10880,14 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="8" s="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="133" t="s">
         <v>163</v>
       </c>
       <c r="D8" s="134"/>
       <c r="E8" s="135"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="19.5" r="9" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="136" t="s">
         <v>567</v>
       </c>
@@ -10900,7 +10898,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="10" s="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="139" t="s">
         <v>52</v>
       </c>
@@ -10914,7 +10912,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="14" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="C14" s="218" t="s">
         <v>668</v>
@@ -10922,7 +10920,7 @@
       <c r="D14" s="218"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="15" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="128" t="s">
         <v>583</v>
       </c>
@@ -10931,14 +10929,14 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="16" s="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="133" t="s">
         <v>588</v>
       </c>
       <c r="D16" s="135"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="22.5" r="17" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" s="136" t="s">
         <v>594</v>
       </c>
@@ -10947,7 +10945,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="18" s="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="139">
         <v>2010</v>
       </c>
@@ -10956,13 +10954,13 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="15" r="22" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="C22" s="219" t="s">
         <v>669</v>
@@ -10970,7 +10968,7 @@
       <c r="D22" s="220"/>
       <c r="E22" s="217"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="23" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="128" t="s">
         <v>583</v>
       </c>
@@ -10981,7 +10979,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="24" s="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="133" t="s">
         <v>588</v>
       </c>
@@ -10990,7 +10988,7 @@
       </c>
       <c r="E24" s="135"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="30" r="25" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="136" t="s">
         <v>596</v>
       </c>
@@ -11001,7 +10999,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="26" s="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="139">
         <v>2010</v>
       </c>
@@ -11015,14 +11013,14 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="15" r="30" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="C30" s="215" t="s">
         <v>670</v>
       </c>
       <c r="D30" s="217"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="31" s="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="128" t="s">
         <v>161</v>
       </c>
@@ -11030,13 +11028,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="32" s="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="131" t="s">
         <v>163</v>
       </c>
       <c r="D32" s="132"/>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="22.5" r="33" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C33" s="136" t="s">
         <v>567</v>
       </c>
@@ -11044,7 +11042,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="34" s="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="139" t="s">
         <v>52</v>
       </c>
@@ -11052,18 +11050,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="35" s="5" spans="1:4" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="38" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="C38" s="218" t="s">
         <v>671</v>
       </c>
       <c r="D38" s="218"/>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="39" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" s="128" t="s">
         <v>161</v>
       </c>
@@ -11071,13 +11069,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="40" s="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="133" t="s">
         <v>163</v>
       </c>
       <c r="D40" s="135"/>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="21" r="41" s="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" s="136" t="s">
         <v>567</v>
       </c>
@@ -11085,7 +11083,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="42" s="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="139" t="s">
         <v>52</v>
       </c>
@@ -11104,16 +11102,16 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C38:D38"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:S90"/>
+  <dimension ref="B2:T90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11142,7 +11140,7 @@
     <col min="21" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="2" spans="2:19" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="44" t="s">
         <v>683</v>
       </c>
@@ -11153,7 +11151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="2:19" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F3" s="156"/>
       <c r="G3" s="157" t="s">
         <v>480</v>
@@ -11162,7 +11160,7 @@
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="274" t="s">
         <v>469</v>
       </c>
@@ -11213,7 +11211,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="8" spans="2:19" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="72" t="s">
         <v>567</v>
       </c>
@@ -11259,7 +11257,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="274" t="s">
         <v>586</v>
       </c>
@@ -11337,7 +11335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="14" spans="2:19" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="72" t="s">
         <v>380</v>
       </c>
@@ -11487,7 +11485,7 @@
         <v>-4633</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="274" t="s">
         <v>470</v>
       </c>
@@ -11533,7 +11531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="21" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="72" t="s">
         <v>380</v>
       </c>
@@ -11597,7 +11595,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+    <row ht="18" r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="274" t="s">
         <v>465</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="27" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="72" t="s">
         <v>224</v>
       </c>
@@ -12333,21 +12331,21 @@
     <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="G2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12357,7 +12355,7 @@
     <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F1" s="16" t="s">
         <v>357</v>
       </c>
@@ -12366,7 +12364,7 @@
       <c r="A2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="20.25" r="3" s="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="44" t="s">
         <v>476</v>
@@ -12374,11 +12372,11 @@
       <c r="C3" s="44"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="4" s="15" spans="1:9" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="45.75" r="5" s="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="C5" s="221" t="s">
         <v>637</v>
@@ -12387,21 +12385,21 @@
       <c r="E5" s="151"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="C6" s="151"/>
       <c r="D6" s="151"/>
       <c r="E6" s="151"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row customHeight="1" ht="15" r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="202" t="s">
         <v>641</v>
       </c>
       <c r="D8" s="204"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="9" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="39" t="s">
         <v>79</v>
       </c>
@@ -12451,7 +12449,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="15" spans="1:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="43" t="s">
         <v>0</v>
       </c>
@@ -12459,14 +12457,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="17" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="19" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="223" t="s">
         <v>642</v>
       </c>
       <c r="D19" s="223"/>
     </row>
-    <row r="20" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="20" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="39" t="s">
         <v>430</v>
       </c>
@@ -12506,7 +12504,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="25" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="43" t="s">
         <v>78</v>
       </c>
@@ -12514,15 +12512,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="27" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row customHeight="1" ht="15.75" r="28" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="29" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="224" t="s">
         <v>643</v>
       </c>
       <c r="D29" s="224"/>
     </row>
-    <row r="30" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="30" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="39" t="s">
         <v>80</v>
       </c>
@@ -12570,7 +12568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="36" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C36" s="43" t="s">
         <v>85</v>
       </c>
@@ -12578,14 +12576,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="38" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="40" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="223" t="s">
         <v>644</v>
       </c>
       <c r="D40" s="223"/>
     </row>
-    <row r="41" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="41" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C41" s="39" t="s">
         <v>433</v>
       </c>
@@ -12633,7 +12631,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="47" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C47" s="43" t="s">
         <v>86</v>
       </c>
@@ -12641,14 +12639,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="49" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="51" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C51" s="224" t="s">
         <v>645</v>
       </c>
       <c r="D51" s="224"/>
     </row>
-    <row r="52" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="52" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="39" t="s">
         <v>91</v>
       </c>
@@ -12696,7 +12694,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="3:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="58" s="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="42" t="s">
         <v>363</v>
       </c>
@@ -12704,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="59" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="43" t="s">
         <v>94</v>
       </c>
@@ -12712,14 +12710,14 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="61" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="61" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="63" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C63" s="223" t="s">
         <v>646</v>
       </c>
       <c r="D63" s="223"/>
     </row>
-    <row r="64" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="64" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="39" t="s">
         <v>95</v>
       </c>
@@ -12775,7 +12773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="71" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C71" s="43" t="s">
         <v>99</v>
       </c>
@@ -12783,14 +12781,14 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="73" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="73" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="75" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C75" s="223" t="s">
         <v>647</v>
       </c>
       <c r="D75" s="223"/>
     </row>
-    <row r="76" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="76" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C76" s="39" t="s">
         <v>100</v>
       </c>
@@ -12838,7 +12836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="82" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C82" s="43" t="s">
         <v>102</v>
       </c>
@@ -12846,14 +12844,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="84" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="86" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C86" s="223" t="s">
         <v>648</v>
       </c>
       <c r="D86" s="223"/>
     </row>
-    <row r="87" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="87" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="39" t="s">
         <v>103</v>
       </c>
@@ -12901,7 +12899,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="93" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C93" s="43" t="s">
         <v>105</v>
       </c>
@@ -12909,14 +12907,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="95" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="95" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="97" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C97" s="224" t="s">
         <v>649</v>
       </c>
       <c r="D97" s="224"/>
     </row>
-    <row r="98" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="98" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C98" s="39" t="s">
         <v>439</v>
       </c>
@@ -12972,7 +12970,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="105" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="105" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C105" s="43" t="s">
         <v>109</v>
       </c>
@@ -12980,14 +12978,14 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="107" s="15" spans="3:4" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="109" spans="3:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C109" s="223" t="s">
         <v>650</v>
       </c>
       <c r="D109" s="223"/>
     </row>
-    <row r="110" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="110" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C110" s="39" t="s">
         <v>442</v>
       </c>
@@ -13036,7 +13034,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="116" spans="3:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C116" s="43" t="s">
         <v>105</v>
       </c>
@@ -13059,15 +13057,15 @@
     <mergeCell ref="C40:D40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Rating Algorithm'!A26" display="Rating Algorithm'!A26"/>
+    <hyperlink display="Rating Algorithm'!A26" location="'Rating Algorithm'!A26" ref="F1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13079,7 +13077,7 @@
     <col min="5" max="5" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="3" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>559</v>
       </c>
@@ -13087,15 +13085,15 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="2:5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row customHeight="1" ht="15" r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="225" t="s">
         <v>672</v>
       </c>
       <c r="D6" s="225"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="7" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="161" t="s">
         <v>428</v>
       </c>
@@ -13113,7 +13111,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="166">
         <v>1</v>
       </c>
@@ -13121,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" s="166">
         <v>9</v>
       </c>
@@ -13129,7 +13127,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="11" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" s="166">
         <v>12</v>
       </c>
@@ -13137,7 +13135,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="12" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="165" t="s">
         <v>560</v>
       </c>
@@ -13156,18 +13154,18 @@
   <mergeCells count="1">
     <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13176,22 +13174,22 @@
     <col min="5" max="5" customWidth="true" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="15" spans="1:7" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="2" s="15" spans="1:7" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" ht="20.25" r="3" s="15" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="44"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:7" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="F4" s="18"/>
       <c r="G4" s="16" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="54" r="5" s="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="151"/>
       <c r="C5" s="221" t="s">
@@ -13201,20 +13199,20 @@
       <c r="E5" s="222"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="13.5" r="6" s="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
       <c r="D6" s="151"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="224" t="s">
         <v>651</v>
       </c>
       <c r="D8" s="223"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="9" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="39" t="s">
         <v>127</v>
       </c>
@@ -13246,7 +13244,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="13" spans="1:7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="43" t="s">
         <v>122</v>
       </c>
@@ -13254,14 +13252,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="15" s="15" spans="1:7" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="17" spans="2:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="227" t="s">
         <v>652</v>
       </c>
       <c r="D17" s="228"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="18" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="39" t="s">
         <v>128</v>
       </c>
@@ -13295,7 +13293,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="22" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="43" t="s">
         <v>122</v>
       </c>
@@ -13303,11 +13301,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="24" s="15" spans="2:10" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="26" spans="2:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="15"/>
       <c r="C26" s="232" t="s">
         <v>657</v>
@@ -13316,7 +13314,7 @@
       <c r="E26" s="234"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row collapsed="1" ht="18.75" r="27" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15"/>
       <c r="C27" s="28" t="s">
         <v>129</v>
@@ -13342,7 +13340,7 @@
       </c>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="29" s="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="42" t="s">
         <v>119</v>
@@ -13353,7 +13351,7 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="30" s="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="42" t="s">
         <v>120</v>
@@ -13386,7 +13384,7 @@
       </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="33" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="15"/>
       <c r="C33" s="43"/>
       <c r="D33" s="36" t="s">
@@ -13401,14 +13399,14 @@
       <c r="B34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="35" s="15" spans="2:9" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="37" spans="2:9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="223" t="s">
         <v>653</v>
       </c>
       <c r="D37" s="223"/>
     </row>
-    <row r="38" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="38" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="39" t="s">
         <v>446</v>
       </c>
@@ -13441,7 +13439,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="42" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="43" t="s">
         <v>122</v>
       </c>
@@ -13459,19 +13457,19 @@
     <mergeCell ref="C26:E26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" location="'Rating Algorithm'!A54" display="Rating Algorithm'!A54"/>
+    <hyperlink display="Rating Algorithm'!A54" location="'Rating Algorithm'!A54" ref="G4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" scale="92"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="1048575" man="1"/>
+    <brk id="5" man="1" max="1048575"/>
   </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13482,23 +13480,23 @@
     <col min="5" max="5" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" r="1" s="15" spans="2:5" x14ac:dyDescent="0.3"/>
+    <row ht="20.25" r="3" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>488</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:5" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="4" s="15" spans="2:5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" customHeight="1" ht="18.75" r="6" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="219" t="s">
         <v>673</v>
       </c>
       <c r="D6" s="220"/>
       <c r="E6" s="217"/>
     </row>
-    <row r="7" spans="2:5" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="7" s="15" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="128" t="s">
         <v>125</v>
       </c>
@@ -13509,7 +13507,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="19.5" r="8" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" s="136" t="s">
         <v>444</v>
       </c>
@@ -13520,7 +13518,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="19.5" r="9" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="164">
         <v>1500</v>
       </c>
@@ -13531,7 +13529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="19.5" r="10" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" s="164">
         <v>-5000</v>
       </c>
@@ -13542,7 +13540,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="19.5" r="11" s="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" s="164">
         <v>0</v>
       </c>
@@ -13553,7 +13551,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="12" s="15" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="139">
         <v>10</v>
       </c>
@@ -13568,16 +13566,16 @@
   <mergeCells count="1">
     <mergeCell ref="C6:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13593,11 +13591,11 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="20.25" r="3" s="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="44" t="s">
         <v>492</v>
@@ -13605,12 +13603,12 @@
       <c r="C3" s="44"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="4" s="15" spans="1:11" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="C4" s="152"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.5" r="5" s="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="151"/>
       <c r="C5" s="221" t="s">
@@ -13620,20 +13618,20 @@
       <c r="E5" s="222"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
       <c r="D6" s="151"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="227" t="s">
         <v>658</v>
       </c>
       <c r="D8" s="228"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="9" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="39" t="s">
         <v>156</v>
       </c>
@@ -13649,7 +13647,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="11" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="43" t="s">
         <v>146</v>
       </c>
@@ -13661,17 +13659,17 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="13" s="15" spans="1:11" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="15" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="224" t="s">
         <v>659</v>
       </c>
       <c r="D15" s="224"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="39" t="s">
         <v>157</v>
       </c>
@@ -13688,7 +13686,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="18" spans="3:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="43" t="s">
         <v>146</v>
       </c>
@@ -13700,20 +13698,20 @@
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="20" s="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="22" spans="3:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="224" t="s">
         <v>660</v>
       </c>
       <c r="D22" s="224"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="23" spans="3:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="39" t="s">
         <v>158</v>
       </c>
@@ -13730,7 +13728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="25" spans="3:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="43" t="s">
         <v>146</v>
       </c>
@@ -13738,14 +13736,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="27" s="15" spans="3:11" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="29" spans="3:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="224" t="s">
         <v>661</v>
       </c>
       <c r="D29" s="224"/>
     </row>
-    <row r="30" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="30" spans="3:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="39" t="s">
         <v>159</v>
       </c>
@@ -13761,7 +13759,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="32" spans="3:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="43" t="s">
         <v>146</v>
       </c>
@@ -13769,14 +13767,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="34" s="15" spans="2:10" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="36" spans="2:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C36" s="224" t="s">
         <v>471</v>
       </c>
       <c r="D36" s="224"/>
     </row>
-    <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="37" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="39" t="s">
         <v>160</v>
       </c>
@@ -13792,7 +13790,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="39" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C39" s="43" t="s">
         <v>146</v>
       </c>
@@ -13800,12 +13798,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="41" s="15" spans="2:10" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="15"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="43" spans="2:10" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="15"/>
       <c r="C43" s="239" t="s">
         <v>654</v>
@@ -13814,7 +13812,7 @@
       <c r="E43" s="241"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="2:10" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="18.75" r="44" s="4" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="15"/>
       <c r="C44" s="39" t="s">
         <v>166</v>
@@ -13827,7 +13825,7 @@
       </c>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="45" s="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C45" s="41" t="s">
         <v>534</v>
       </c>
@@ -13838,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="46" s="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="15"/>
       <c r="C46" s="42" t="s">
         <v>541</v>
@@ -13849,7 +13847,7 @@
       </c>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="47" s="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
       <c r="C47" s="42" t="s">
         <v>542</v>
@@ -13871,7 +13869,7 @@
       </c>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="49" spans="2:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
       <c r="C49" s="43" t="s">
         <v>535</v>
@@ -13901,7 +13899,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="53" s="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="2"/>
@@ -13935,16 +13933,16 @@
     <mergeCell ref="C43:E43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G1" location="'Rating Algorithm'!A73" display="Rating Algorithm'!A73"/>
+    <hyperlink display="Rating Algorithm'!A73" location="'Rating Algorithm'!A73" ref="G1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13955,7 +13953,7 @@
     <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="20.25" r="3" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>574</v>
       </c>
@@ -13963,21 +13961,21 @@
       <c r="D3" s="44"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="2:9" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="15" spans="2:9" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="6" s="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C6" s="225" t="s">
         <v>674</v>
       </c>
       <c r="D6" s="225"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="7" s="15" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="161" t="s">
         <v>46</v>
       </c>
@@ -13985,7 +13983,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="8" s="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" s="163" t="s">
         <v>156</v>
       </c>
@@ -13993,7 +13991,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" s="166" t="s">
         <v>147</v>
       </c>
@@ -14001,7 +13999,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="15.75" r="10" s="15" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="165" t="s">
         <v>146</v>
       </c>
@@ -14009,8 +14007,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="11" s="15" spans="2:9" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="12" s="15" spans="2:9" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -14025,7 +14023,7 @@
       <c r="D14" s="220"/>
       <c r="E14" s="217"/>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="15" spans="2:9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="15"/>
       <c r="C15" s="128" t="s">
         <v>37</v>
@@ -14085,7 +14083,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="20" spans="2:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="15"/>
       <c r="C20" s="139" t="s">
         <v>549</v>
@@ -14102,16 +14100,16 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C6:D6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14131,11 +14129,11 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row customFormat="1" ht="20.25" r="3" s="15" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="44" t="s">
         <v>493</v>
@@ -14143,11 +14141,11 @@
       <c r="C3" s="44"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="4" s="15" spans="1:8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="53.25" r="5" s="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="C5" s="186" t="s">
         <v>640</v>
@@ -14155,11 +14153,11 @@
       <c r="D5" s="242"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="8" spans="1:8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="224" t="s">
         <v>662</v>
       </c>
@@ -14169,7 +14167,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="9" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="39" t="s">
         <v>454</v>
       </c>
@@ -14193,7 +14191,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="11" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="43" t="s">
         <v>146</v>
       </c>
@@ -14213,7 +14211,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="13" s="15" spans="1:8" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -14222,7 +14220,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="15" spans="1:8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="224" t="s">
         <v>663</v>
       </c>
@@ -14232,7 +14230,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="16" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="39" t="s">
         <v>169</v>
       </c>
@@ -14256,7 +14254,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="18" spans="3:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="43" t="s">
         <v>146</v>
       </c>
@@ -14276,7 +14274,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="3:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row customFormat="1" r="20" s="15" spans="3:8" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -14285,7 +14283,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="18.75" r="22" spans="3:8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="202" t="s">
         <v>664</v>
       </c>
@@ -14295,7 +14293,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="23" spans="3:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="39" t="s">
         <v>457</v>
       </c>
@@ -14321,7 +14319,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="25" spans="3:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="43"/>
       <c r="D25" s="95">
         <v>1</v>
@@ -14334,8 +14332,8 @@
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="3:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" r="27" s="15" spans="3:8" x14ac:dyDescent="0.3"/>
+    <row ht="18.75" r="29" spans="3:8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="202" t="s">
         <v>665</v>
       </c>
@@ -14343,7 +14341,7 @@
       <c r="E29" s="203"/>
       <c r="F29" s="204"/>
     </row>
-    <row r="30" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18.75" r="30" spans="3:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="39" t="s">
         <v>458</v>
       </c>
@@ -14371,7 +14369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15.75" r="32" spans="3:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="43"/>
       <c r="D32" s="243">
         <v>1</v>
@@ -14420,8 +14418,8 @@
     <mergeCell ref="D24:E24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H1" location="'Rating Algorithm'!A88" display="Rating Algorithm'!A88"/>
+    <hyperlink display="Rating Algorithm'!A88" location="'Rating Algorithm'!A88" ref="H1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>